--- a/biology/Botanique/Tulipa_agenensis/Tulipa_agenensis.xlsx
+++ b/biology/Botanique/Tulipa_agenensis/Tulipa_agenensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Tulipe d'Agen (Tulipa agenensis) est une espèce géophyte qui appartient à la famille des Liliacées. C'est une des tulipes qu'on trouve à l'état sauvage en Europe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Tulipe d'Agen (Tulipa agenensis) est une espèce géophyte qui appartient à la famille des Liliacées. C'est une des tulipes qu'on trouve à l'état sauvage en Europe.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tulipes rouges[2], dites d'Agen, c'est une espèce protégée.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tulipes rouges, dites d'Agen, c'est une espèce protégée.</t>
         </is>
       </c>
     </row>
@@ -541,9 +555,11 @@
           <t>Distribution et Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du nord-ouest de l'Iran[3]. Elle a connu un grand succès comme plante ornementale dans la Perse médiévale, puis à partir du XVIe siècle ses bulbes ont fait l'objet d'un commerce dans l'empire Ottoman et en Europe. Cette espèce est de nos jours largement répartie dans la moitié sud de l'Europe, en Turquie, dans les pays du Levant ainsi qu'en Tunisie. Elle est donc introduite et non indigène dans la majeure partie son aire actuelle, mais son introduction étant relativement ancienne on l'a considérée comme indigène en Europe jusqu'à récemment.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du nord-ouest de l'Iran. Elle a connu un grand succès comme plante ornementale dans la Perse médiévale, puis à partir du XVIe siècle ses bulbes ont fait l'objet d'un commerce dans l'empire Ottoman et en Europe. Cette espèce est de nos jours largement répartie dans la moitié sud de l'Europe, en Turquie, dans les pays du Levant ainsi qu'en Tunisie. Elle est donc introduite et non indigène dans la majeure partie son aire actuelle, mais son introduction étant relativement ancienne on l'a considérée comme indigène en Europe jusqu'à récemment.
 En France, on la trouve plus particulièrement en Lot-et-Garonne et plus rarement dans les autres départements d'Aquitaine et les régions de Midi-Pyrénées et Provence-Alpes-Côte d'Azur.
 En Europe et dans le Bassin méditerranéen, elle est surtout devenue une plante messicole, qu'on trouve en particulier dans les vergers, les vignes et les oliveraies, plus occasionnellement dans les prairies sèches, les garrigues, les bois clairs et les bordures des champs.
 </t>
@@ -574,11 +590,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 mai 2013)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 mai 2013) :
 Tulipa agenensis Redouté (1804)
-Selon Tropicos                                           (21 mai 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Tulipa agenensis subsp. boissieri (Regel) Feinbrun
 sous-espèce Tulipa agenensis subsp. sharonensis (Dinsm.) Feinbrun</t>
         </is>
